--- a/03.Tasks/students.xlsx
+++ b/03.Tasks/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\db\03.Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D488AA86-13F5-4B18-907D-C4B29DE2E0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C663E5A-F7A3-4045-8094-72EBD2018325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="376">
   <si>
     <t>places</t>
   </si>
@@ -497,9 +497,6 @@
   </si>
   <si>
     <t>Номер ряда</t>
-  </si>
-  <si>
-    <t>shcedule</t>
   </si>
   <si>
     <t>SMALLINT</t>
@@ -1650,10 +1647,19 @@
     </r>
   </si>
   <si>
-    <t>Из запроса видно, что весь год Гопп Дмитрий Анатольевич сидел на первой линии, четвертой парте справа - именно это место больше всего испорчено фломастером.</t>
-  </si>
-  <si>
     <t>Астрономия изучается в 10-11 классах, как правило старшие классы имеют по две литеры А и Б, редко В, т.к. большая часть учащихся, после получения неполного среднего образования, переходит в Лицеи (ПТУ) и колледжи (Техникумы)</t>
+  </si>
+  <si>
+    <t>Кабинет Астрономии посещают 4 класса 10А, 10Б, 11А, 11Б по 30 человек</t>
+  </si>
+  <si>
+    <t>Таблица размерности временных показателей</t>
+  </si>
+  <si>
+    <t>sсhedule</t>
+  </si>
+  <si>
+    <t>Из запроса видно, что весь год Гопп Дмитрий Анатольевич сидел на первой линии (ряду), четвертой парте справа (вариант 2, в бинарной сестеме 1) - именно это место больше всего испорчено фломастером.</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1672,7 @@
     <numFmt numFmtId="166" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
     <numFmt numFmtId="167" formatCode="h&quot;:&quot;mm"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1857,6 +1863,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2021,7 +2034,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2120,6 +2133,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Денежный 2" xfId="3" xr:uid="{2910AD2D-21FD-45CD-B22A-289DECF1D769}"/>
@@ -2405,7 +2421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2414,48 +2432,50 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2463,33 +2483,33 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2514,7 +2534,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="7">
         <v>2</v>
@@ -2534,7 +2554,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="7">
         <v>3</v>
@@ -2554,7 +2574,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="7">
         <v>4</v>
@@ -2574,7 +2594,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="7">
         <v>8</v>
@@ -2586,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2600,71 +2620,75 @@
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
+        <v>373</v>
+      </c>
+    </row>
     <row r="24" spans="1:6" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2704,11 +2728,11 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,7 +2746,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>136</v>
@@ -2737,10 +2761,10 @@
         <v>131</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>132</v>
@@ -2779,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2815,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2851,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2887,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2923,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2959,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2995,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3031,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3067,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3103,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3139,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3175,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3211,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3247,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3283,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3319,7 +3343,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3355,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3391,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3427,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3463,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -3499,7 +3523,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3535,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3571,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3607,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3643,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3679,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3715,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3751,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3787,7 +3811,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3823,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3858,7 +3882,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3893,7 +3917,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3928,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3964,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4000,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4036,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4072,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4108,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4144,7 +4168,7 @@
         <v>2</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4180,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -4216,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4252,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -4288,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4324,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -4360,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4396,7 +4420,7 @@
         <v>2</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -4432,7 +4456,7 @@
         <v>2</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -4468,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -4504,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4540,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4576,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -4612,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4648,7 +4672,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4684,7 +4708,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4720,7 +4744,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4756,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4792,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -4828,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4864,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4900,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4936,7 +4960,7 @@
         <v>2</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -4972,7 +4996,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -5008,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -5043,7 +5067,7 @@
         <v>2</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5078,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -5113,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -5148,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -5183,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -5218,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -5253,7 +5277,7 @@
         <v>2</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -5288,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -5323,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -5358,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -5393,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5428,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5463,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5498,7 +5522,7 @@
         <v>2</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -5533,7 +5557,7 @@
         <v>2</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -5568,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -5603,7 +5627,7 @@
         <v>2</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5638,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5673,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5708,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5743,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5778,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -5813,7 +5837,7 @@
         <v>2</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -5848,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5883,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5918,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -5953,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -5988,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -6023,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -6058,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -6093,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -6128,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -6163,7 +6187,7 @@
         <v>2</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -6198,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -6233,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -6268,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -6303,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -6338,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -6373,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -6408,7 +6432,7 @@
         <v>2</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -6443,7 +6467,7 @@
         <v>2</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -6478,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -6513,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6548,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -6583,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -6618,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -6653,7 +6677,7 @@
         <v>2</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -6688,7 +6712,7 @@
         <v>2</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -6723,7 +6747,7 @@
         <v>2</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -6758,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -6793,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -6828,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -6863,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -6898,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -6933,7 +6957,7 @@
         <v>2</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -6968,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -7003,7 +7027,7 @@
         <v>2</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -7023,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -7046,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -7078,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -7110,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -7142,7 +7166,7 @@
         <v>2</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -7174,7 +7198,7 @@
         <v>2</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -7206,7 +7230,7 @@
         <v>2</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -7238,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -7270,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -7302,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -7334,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -7366,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -7398,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -7430,7 +7454,7 @@
         <v>2</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -7462,7 +7486,7 @@
         <v>2</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -7494,7 +7518,7 @@
         <v>2</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -7526,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -7558,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -7590,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -7622,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -7654,7 +7678,7 @@
         <v>2</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -7686,7 +7710,7 @@
         <v>2</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -7718,7 +7742,7 @@
         <v>2</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -7750,7 +7774,7 @@
         <v>2</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -7782,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -7814,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -7846,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -7878,7 +7902,7 @@
         <v>1</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -7910,7 +7934,7 @@
         <v>2</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -7942,7 +7966,7 @@
         <v>2</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -7974,7 +7998,7 @@
         <v>2</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -8006,7 +8030,7 @@
         <v>2</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -8038,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -8058,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -8081,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -8095,7 +8119,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G158" s="1">
         <v>156</v>
@@ -8113,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -8127,7 +8151,7 @@
         <v>28856</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G159" s="1">
         <v>157</v>
@@ -8145,7 +8169,7 @@
         <v>2</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -8159,7 +8183,7 @@
         <v>36412</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G160" s="1">
         <v>158</v>
@@ -8177,7 +8201,7 @@
         <v>2</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -8185,13 +8209,13 @@
         <v>3</v>
       </c>
       <c r="B161" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C161" s="25">
         <v>25600</v>
       </c>
       <c r="D161" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G161" s="1">
         <v>159</v>
@@ -8209,7 +8233,7 @@
         <v>2</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -8217,13 +8241,13 @@
         <v>4</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C162" s="25">
         <v>27427</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G162" s="1">
         <v>160</v>
@@ -8241,7 +8265,7 @@
         <v>2</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -8261,12 +8285,12 @@
         <v>1</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B164" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G164" s="1">
         <v>162</v>
@@ -8284,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -8295,10 +8319,10 @@
         <v>5</v>
       </c>
       <c r="C165" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D165" s="23" t="s">
         <v>345</v>
-      </c>
-      <c r="D165" s="23" t="s">
-        <v>346</v>
       </c>
       <c r="G165" s="1">
         <v>163</v>
@@ -8316,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -8348,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8380,7 +8404,7 @@
         <v>2</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -8412,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -8444,7 +8468,7 @@
         <v>2</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -8464,7 +8488,7 @@
         <v>2</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -8484,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -8504,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -8524,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8544,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8564,7 +8588,7 @@
         <v>2</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -8584,7 +8608,7 @@
         <v>2</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="7:12" x14ac:dyDescent="0.25">
@@ -8604,7 +8628,7 @@
         <v>2</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="7:12" x14ac:dyDescent="0.25">
@@ -8624,7 +8648,7 @@
         <v>2</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="7:12" x14ac:dyDescent="0.25">
@@ -8644,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="7:12" x14ac:dyDescent="0.25">
@@ -8664,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="181" spans="7:12" x14ac:dyDescent="0.25">
@@ -8684,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="182" spans="7:12" x14ac:dyDescent="0.25">
@@ -8704,7 +8728,7 @@
         <v>1</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="7:12" x14ac:dyDescent="0.25">
@@ -8724,7 +8748,7 @@
         <v>2</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="7:12" x14ac:dyDescent="0.25">
@@ -8744,7 +8768,7 @@
         <v>2</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="7:12" x14ac:dyDescent="0.25">
@@ -8764,7 +8788,7 @@
         <v>2</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="186" spans="7:12" x14ac:dyDescent="0.25">
@@ -8784,7 +8808,7 @@
         <v>2</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" spans="7:12" x14ac:dyDescent="0.25">
@@ -8804,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="188" spans="7:12" x14ac:dyDescent="0.25">
@@ -8824,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="189" spans="7:12" x14ac:dyDescent="0.25">
@@ -8844,7 +8868,7 @@
         <v>1</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="190" spans="7:12" x14ac:dyDescent="0.25">
@@ -8864,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="191" spans="7:12" x14ac:dyDescent="0.25">
@@ -8884,7 +8908,7 @@
         <v>2</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="192" spans="7:12" x14ac:dyDescent="0.25">
@@ -8904,7 +8928,7 @@
         <v>2</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="193" spans="7:12" x14ac:dyDescent="0.25">
@@ -8924,7 +8948,7 @@
         <v>2</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="194" spans="7:12" x14ac:dyDescent="0.25">
@@ -8944,7 +8968,7 @@
         <v>2</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="195" spans="7:12" x14ac:dyDescent="0.25">
@@ -8964,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="196" spans="7:12" x14ac:dyDescent="0.25">
@@ -8984,7 +9008,7 @@
         <v>1</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="197" spans="7:12" x14ac:dyDescent="0.25">
@@ -9004,7 +9028,7 @@
         <v>1</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="198" spans="7:12" x14ac:dyDescent="0.25">
@@ -9024,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="199" spans="7:12" x14ac:dyDescent="0.25">
@@ -9044,7 +9068,7 @@
         <v>2</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="200" spans="7:12" x14ac:dyDescent="0.25">
@@ -9064,7 +9088,7 @@
         <v>2</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="201" spans="7:12" x14ac:dyDescent="0.25">
@@ -9084,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="202" spans="7:12" x14ac:dyDescent="0.25">
@@ -9104,7 +9128,7 @@
         <v>2</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="203" spans="7:12" x14ac:dyDescent="0.25">
@@ -9124,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="204" spans="7:12" x14ac:dyDescent="0.25">
@@ -9144,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="205" spans="7:12" x14ac:dyDescent="0.25">
@@ -9164,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="206" spans="7:12" x14ac:dyDescent="0.25">
@@ -9184,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="207" spans="7:12" x14ac:dyDescent="0.25">
@@ -9204,7 +9228,7 @@
         <v>2</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="208" spans="7:12" x14ac:dyDescent="0.25">
@@ -9224,7 +9248,7 @@
         <v>2</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="209" spans="7:12" x14ac:dyDescent="0.25">
@@ -9244,7 +9268,7 @@
         <v>2</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="210" spans="7:12" x14ac:dyDescent="0.25">
@@ -9264,7 +9288,7 @@
         <v>2</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="211" spans="7:12" x14ac:dyDescent="0.25">
@@ -9284,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="212" spans="7:12" x14ac:dyDescent="0.25">
@@ -9304,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="213" spans="7:12" x14ac:dyDescent="0.25">
@@ -9324,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="214" spans="7:12" x14ac:dyDescent="0.25">
@@ -9344,7 +9368,7 @@
         <v>1</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="215" spans="7:12" x14ac:dyDescent="0.25">
@@ -9364,7 +9388,7 @@
         <v>2</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="216" spans="7:12" x14ac:dyDescent="0.25">
@@ -9384,7 +9408,7 @@
         <v>2</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="217" spans="7:12" x14ac:dyDescent="0.25">
@@ -9404,7 +9428,7 @@
         <v>2</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="218" spans="7:12" x14ac:dyDescent="0.25">
@@ -9424,7 +9448,7 @@
         <v>2</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="219" spans="7:12" x14ac:dyDescent="0.25">
@@ -9444,7 +9468,7 @@
         <v>1</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="220" spans="7:12" x14ac:dyDescent="0.25">
@@ -9464,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="221" spans="7:12" x14ac:dyDescent="0.25">
@@ -9484,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="222" spans="7:12" x14ac:dyDescent="0.25">
@@ -9504,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="223" spans="7:12" x14ac:dyDescent="0.25">
@@ -9524,7 +9548,7 @@
         <v>2</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="224" spans="7:12" x14ac:dyDescent="0.25">
@@ -9544,7 +9568,7 @@
         <v>2</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="225" spans="7:12" x14ac:dyDescent="0.25">
@@ -9564,7 +9588,7 @@
         <v>2</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" spans="7:12" x14ac:dyDescent="0.25">
@@ -9584,7 +9608,7 @@
         <v>2</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="227" spans="7:12" x14ac:dyDescent="0.25">
@@ -9604,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="228" spans="7:12" x14ac:dyDescent="0.25">
@@ -9624,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="229" spans="7:12" x14ac:dyDescent="0.25">
@@ -9644,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="230" spans="7:12" x14ac:dyDescent="0.25">
@@ -9664,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="231" spans="7:12" x14ac:dyDescent="0.25">
@@ -9684,7 +9708,7 @@
         <v>2</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="232" spans="7:12" x14ac:dyDescent="0.25">
@@ -9704,7 +9728,7 @@
         <v>2</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="233" spans="7:12" x14ac:dyDescent="0.25">
@@ -9724,7 +9748,7 @@
         <v>2</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="234" spans="7:12" x14ac:dyDescent="0.25">
@@ -9744,7 +9768,7 @@
         <v>2</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="235" spans="7:12" x14ac:dyDescent="0.25">
@@ -9764,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="236" spans="7:12" x14ac:dyDescent="0.25">
@@ -9784,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="237" spans="7:12" x14ac:dyDescent="0.25">
@@ -9804,7 +9828,7 @@
         <v>1</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="238" spans="7:12" x14ac:dyDescent="0.25">
@@ -9824,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="239" spans="7:12" x14ac:dyDescent="0.25">
@@ -9844,7 +9868,7 @@
         <v>2</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="240" spans="7:12" x14ac:dyDescent="0.25">
@@ -9864,7 +9888,7 @@
         <v>2</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="241" spans="7:12" x14ac:dyDescent="0.25">
@@ -9884,7 +9908,7 @@
         <v>2</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="242" spans="7:12" x14ac:dyDescent="0.25">
@@ -9904,7 +9928,7 @@
         <v>2</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="243" spans="7:12" x14ac:dyDescent="0.25">
@@ -9924,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" spans="7:12" x14ac:dyDescent="0.25">
@@ -9944,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="245" spans="7:12" x14ac:dyDescent="0.25">
@@ -9964,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="246" spans="7:12" x14ac:dyDescent="0.25">
@@ -9984,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="247" spans="7:12" x14ac:dyDescent="0.25">
@@ -10004,7 +10028,7 @@
         <v>2</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="248" spans="7:12" x14ac:dyDescent="0.25">
@@ -10024,7 +10048,7 @@
         <v>2</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249" spans="7:12" x14ac:dyDescent="0.25">
@@ -10044,7 +10068,7 @@
         <v>2</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" spans="7:12" x14ac:dyDescent="0.25">
@@ -10064,7 +10088,7 @@
         <v>2</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="251" spans="7:12" x14ac:dyDescent="0.25">
@@ -10084,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="252" spans="7:12" x14ac:dyDescent="0.25">
@@ -10104,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="253" spans="7:12" x14ac:dyDescent="0.25">
@@ -10124,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" spans="7:12" x14ac:dyDescent="0.25">
@@ -10144,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="255" spans="7:12" x14ac:dyDescent="0.25">
@@ -10164,7 +10188,7 @@
         <v>2</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="256" spans="7:12" x14ac:dyDescent="0.25">
@@ -10184,7 +10208,7 @@
         <v>2</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="257" spans="7:12" x14ac:dyDescent="0.25">
@@ -10204,7 +10228,7 @@
         <v>2</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="258" spans="7:12" x14ac:dyDescent="0.25">
@@ -10224,7 +10248,7 @@
         <v>2</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="259" spans="7:12" x14ac:dyDescent="0.25">
@@ -10244,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="260" spans="7:12" x14ac:dyDescent="0.25">
@@ -10264,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="261" spans="7:12" x14ac:dyDescent="0.25">
@@ -10284,7 +10308,7 @@
         <v>1</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="262" spans="7:12" x14ac:dyDescent="0.25">
@@ -10304,7 +10328,7 @@
         <v>1</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="263" spans="7:12" x14ac:dyDescent="0.25">
@@ -10324,7 +10348,7 @@
         <v>2</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="264" spans="7:12" x14ac:dyDescent="0.25">
@@ -10344,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="265" spans="7:12" x14ac:dyDescent="0.25">
@@ -10364,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="266" spans="7:12" x14ac:dyDescent="0.25">
@@ -10384,7 +10408,7 @@
         <v>2</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="267" spans="7:12" x14ac:dyDescent="0.25">
@@ -10404,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="268" spans="7:12" x14ac:dyDescent="0.25">
@@ -10424,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="269" spans="7:12" x14ac:dyDescent="0.25">
@@ -10444,7 +10468,7 @@
         <v>1</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="270" spans="7:12" x14ac:dyDescent="0.25">
@@ -10464,7 +10488,7 @@
         <v>1</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="271" spans="7:12" x14ac:dyDescent="0.25">
@@ -10484,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="272" spans="7:12" x14ac:dyDescent="0.25">
@@ -10504,7 +10528,7 @@
         <v>2</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="273" spans="7:12" x14ac:dyDescent="0.25">
@@ -10524,7 +10548,7 @@
         <v>2</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="274" spans="7:12" x14ac:dyDescent="0.25">
@@ -10544,7 +10568,7 @@
         <v>2</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="275" spans="7:12" x14ac:dyDescent="0.25">
@@ -10564,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="276" spans="7:12" x14ac:dyDescent="0.25">
@@ -10584,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="277" spans="7:12" x14ac:dyDescent="0.25">
@@ -10604,7 +10628,7 @@
         <v>1</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="278" spans="7:12" x14ac:dyDescent="0.25">
@@ -10624,7 +10648,7 @@
         <v>1</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="279" spans="7:12" x14ac:dyDescent="0.25">
@@ -10644,7 +10668,7 @@
         <v>2</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="280" spans="7:12" x14ac:dyDescent="0.25">
@@ -10664,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="281" spans="7:12" x14ac:dyDescent="0.25">
@@ -10684,7 +10708,7 @@
         <v>2</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="282" spans="7:12" x14ac:dyDescent="0.25">
@@ -10704,7 +10728,7 @@
         <v>2</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="283" spans="7:12" x14ac:dyDescent="0.25">
@@ -10724,7 +10748,7 @@
         <v>1</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="284" spans="7:12" x14ac:dyDescent="0.25">
@@ -10744,7 +10768,7 @@
         <v>1</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="285" spans="7:12" x14ac:dyDescent="0.25">
@@ -10764,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="286" spans="7:12" x14ac:dyDescent="0.25">
@@ -10784,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="287" spans="7:12" x14ac:dyDescent="0.25">
@@ -10804,7 +10828,7 @@
         <v>2</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="288" spans="7:12" x14ac:dyDescent="0.25">
@@ -10824,7 +10848,7 @@
         <v>2</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="289" spans="7:12" x14ac:dyDescent="0.25">
@@ -10844,7 +10868,7 @@
         <v>2</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="290" spans="7:12" x14ac:dyDescent="0.25">
@@ -10864,7 +10888,7 @@
         <v>2</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="291" spans="7:12" x14ac:dyDescent="0.25">
@@ -10884,7 +10908,7 @@
         <v>1</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="292" spans="7:12" x14ac:dyDescent="0.25">
@@ -10904,7 +10928,7 @@
         <v>1</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="293" spans="7:12" x14ac:dyDescent="0.25">
@@ -10924,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="294" spans="7:12" x14ac:dyDescent="0.25">
@@ -10944,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="295" spans="7:12" x14ac:dyDescent="0.25">
@@ -10964,7 +10988,7 @@
         <v>2</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="296" spans="7:12" x14ac:dyDescent="0.25">
@@ -10984,7 +11008,7 @@
         <v>2</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="297" spans="7:12" x14ac:dyDescent="0.25">
@@ -11004,7 +11028,7 @@
         <v>2</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="298" spans="7:12" x14ac:dyDescent="0.25">
@@ -11024,7 +11048,7 @@
         <v>2</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="299" spans="7:12" x14ac:dyDescent="0.25">
@@ -11044,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="300" spans="7:12" x14ac:dyDescent="0.25">
@@ -11064,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="301" spans="7:12" x14ac:dyDescent="0.25">
@@ -11084,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="302" spans="7:12" x14ac:dyDescent="0.25">
@@ -11104,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="303" spans="7:12" x14ac:dyDescent="0.25">
@@ -11124,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="304" spans="7:12" x14ac:dyDescent="0.25">
@@ -11144,7 +11168,7 @@
         <v>2</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="305" spans="7:12" x14ac:dyDescent="0.25">
@@ -11164,7 +11188,7 @@
         <v>2</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="306" spans="7:12" x14ac:dyDescent="0.25">
@@ -11184,7 +11208,7 @@
         <v>2</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -11201,7 +11225,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11215,7 +11239,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -11263,13 +11287,13 @@
         <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1">
         <v>25</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11280,7 +11304,7 @@
         <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -11291,7 +11315,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>144</v>
@@ -11303,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11320,12 +11344,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>153</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11353,7 +11377,7 @@
         <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -11370,13 +11394,13 @@
         <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -11387,18 +11411,18 @@
         <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>144</v>
@@ -11410,7 +11434,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -11427,7 +11451,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -11438,13 +11462,13 @@
         <v>147</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="1">
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -11592,13 +11616,13 @@
         <v>147</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D28" s="1">
         <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -11609,7 +11633,7 @@
         <v>147</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -11620,24 +11644,24 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D30" s="1">
         <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -11682,18 +11706,18 @@
         <v>147</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>144</v>
@@ -11705,12 +11729,12 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>144</v>
@@ -11722,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -11735,7 +11759,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11745,7 +11769,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -11759,12 +11783,12 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">

--- a/03.Tasks/students.xlsx
+++ b/03.Tasks/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\db\03.Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C663E5A-F7A3-4045-8094-72EBD2018325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F89AE4-966A-4A99-BC54-8462986C24BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1612,12 +1612,6 @@
     <t>название класса</t>
   </si>
   <si>
-    <t>внешн.ключ teachers</t>
-  </si>
-  <si>
-    <t>внешн.ключ pupils</t>
-  </si>
-  <si>
     <t>За основу взята СУБД Mysql, которая имеет следующие типы данных:</t>
   </si>
   <si>
@@ -1660,6 +1654,14 @@
   </si>
   <si>
     <t>Из запроса видно, что весь год Гопп Дмитрий Анатольевич сидел на первой линии (ряду), четвертой парте справа (вариант 2, в бинарной сестеме 1) - именно это место больше всего испорчено фломастером.</t>
+  </si>
+  <si>
+    <t>внешний ключ teachers
+классный руководитель</t>
+  </si>
+  <si>
+    <t>внешний ключ pupils
+староста класса</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2036,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2133,8 +2135,11 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2460,12 +2465,12 @@
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
@@ -2475,7 +2480,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2622,7 +2627,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11225,7 +11230,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11349,7 +11354,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11715,7 +11720,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>344</v>
       </c>
@@ -11728,11 +11733,11 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>345</v>
       </c>
@@ -11745,8 +11750,8 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>368</v>
+      <c r="E37" s="47" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -11769,7 +11774,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -11788,7 +11793,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">

--- a/03.Tasks/students.xlsx
+++ b/03.Tasks/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\db\03.Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F89AE4-966A-4A99-BC54-8462986C24BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522E85A5-2E30-4C74-ABD9-8646AE15866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,9 +461,6 @@
   </si>
   <si>
     <t>Тип</t>
-  </si>
-  <si>
-    <t>Длинна</t>
   </si>
   <si>
     <t>Коментарий</t>
@@ -1662,6 +1659,9 @@
   <si>
     <t>внешний ключ pupils
 староста класса</t>
+  </si>
+  <si>
+    <t>Длина</t>
   </si>
 </sst>
 </file>
@@ -2437,27 +2437,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2465,22 +2465,22 @@
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2488,38 +2488,38 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="7">
         <v>2</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="7">
         <v>3</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="7">
         <v>4</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="7">
         <v>8</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,73 +2627,73 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2733,11 +2733,11 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>136</v>
@@ -2766,10 +2766,10 @@
         <v>131</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>132</v>
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3024,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3240,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3312,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -3528,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3564,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3600,7 +3600,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3744,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3816,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
         <v>2</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4029,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4101,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4137,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4173,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -4317,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -4389,7 +4389,7 @@
         <v>2</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4425,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -4461,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -4497,7 +4497,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4677,7 +4677,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4713,7 +4713,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4749,7 +4749,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4785,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -5001,7 +5001,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -5037,7 +5037,7 @@
         <v>2</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -5177,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -5247,7 +5247,7 @@
         <v>2</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -5282,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -5352,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -5422,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5527,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -5562,7 +5562,7 @@
         <v>2</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -5597,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>2</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5702,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5737,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5807,7 +5807,7 @@
         <v>2</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -5842,7 +5842,7 @@
         <v>2</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -5877,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
         <v>2</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5947,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -6017,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -6052,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -6087,7 +6087,7 @@
         <v>2</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -6122,7 +6122,7 @@
         <v>2</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -6157,7 +6157,7 @@
         <v>2</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -6192,7 +6192,7 @@
         <v>2</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -6262,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -6297,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -6367,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -6402,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -6472,7 +6472,7 @@
         <v>2</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -6507,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -6647,7 +6647,7 @@
         <v>2</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -6717,7 +6717,7 @@
         <v>2</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -6752,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -6857,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -6892,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -6927,7 +6927,7 @@
         <v>2</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -6962,7 +6962,7 @@
         <v>2</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -6997,7 +6997,7 @@
         <v>2</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
         <v>2</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -7075,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -7171,7 +7171,7 @@
         <v>2</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -7203,7 +7203,7 @@
         <v>2</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -7235,7 +7235,7 @@
         <v>2</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -7267,7 +7267,7 @@
         <v>2</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -7299,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -7331,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -7395,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -7427,7 +7427,7 @@
         <v>2</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -7459,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -7491,7 +7491,7 @@
         <v>2</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -7523,7 +7523,7 @@
         <v>2</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -7555,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
         <v>1</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -7683,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -7715,7 +7715,7 @@
         <v>2</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -7747,7 +7747,7 @@
         <v>2</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -7779,7 +7779,7 @@
         <v>2</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -7811,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -7875,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -7907,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -7939,7 +7939,7 @@
         <v>2</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -7971,7 +7971,7 @@
         <v>2</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -8003,7 +8003,7 @@
         <v>2</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -8035,7 +8035,7 @@
         <v>2</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -8067,7 +8067,7 @@
         <v>1</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -8087,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -8124,7 +8124,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G158" s="1">
         <v>156</v>
@@ -8142,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -8156,7 +8156,7 @@
         <v>28856</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G159" s="1">
         <v>157</v>
@@ -8174,7 +8174,7 @@
         <v>2</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -8188,7 +8188,7 @@
         <v>36412</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G160" s="1">
         <v>158</v>
@@ -8206,7 +8206,7 @@
         <v>2</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -8214,13 +8214,13 @@
         <v>3</v>
       </c>
       <c r="B161" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C161" s="25">
         <v>25600</v>
       </c>
       <c r="D161" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G161" s="1">
         <v>159</v>
@@ -8238,7 +8238,7 @@
         <v>2</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -8246,13 +8246,13 @@
         <v>4</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C162" s="25">
         <v>27427</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G162" s="1">
         <v>160</v>
@@ -8270,7 +8270,7 @@
         <v>2</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -8290,12 +8290,12 @@
         <v>1</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B164" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G164" s="1">
         <v>162</v>
@@ -8313,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -8324,10 +8324,10 @@
         <v>5</v>
       </c>
       <c r="C165" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D165" s="23" t="s">
         <v>344</v>
-      </c>
-      <c r="D165" s="23" t="s">
-        <v>345</v>
       </c>
       <c r="G165" s="1">
         <v>163</v>
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C166" s="24">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8409,7 +8409,7 @@
         <v>2</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -8441,7 +8441,7 @@
         <v>2</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -8473,7 +8473,7 @@
         <v>2</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -8493,7 +8493,7 @@
         <v>2</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -8513,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -8533,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8593,7 +8593,7 @@
         <v>2</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -8613,7 +8613,7 @@
         <v>2</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="7:12" x14ac:dyDescent="0.25">
@@ -8633,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="7:12" x14ac:dyDescent="0.25">
@@ -8653,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="7:12" x14ac:dyDescent="0.25">
@@ -8673,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="7:12" x14ac:dyDescent="0.25">
@@ -8693,7 +8693,7 @@
         <v>1</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="7:12" x14ac:dyDescent="0.25">
@@ -8713,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="182" spans="7:12" x14ac:dyDescent="0.25">
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="183" spans="7:12" x14ac:dyDescent="0.25">
@@ -8753,7 +8753,7 @@
         <v>2</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="184" spans="7:12" x14ac:dyDescent="0.25">
@@ -8773,7 +8773,7 @@
         <v>2</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="7:12" x14ac:dyDescent="0.25">
@@ -8793,7 +8793,7 @@
         <v>2</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="7:12" x14ac:dyDescent="0.25">
@@ -8813,7 +8813,7 @@
         <v>2</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="7:12" x14ac:dyDescent="0.25">
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="7:12" x14ac:dyDescent="0.25">
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="189" spans="7:12" x14ac:dyDescent="0.25">
@@ -8873,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="190" spans="7:12" x14ac:dyDescent="0.25">
@@ -8893,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="191" spans="7:12" x14ac:dyDescent="0.25">
@@ -8913,7 +8913,7 @@
         <v>2</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="192" spans="7:12" x14ac:dyDescent="0.25">
@@ -8933,7 +8933,7 @@
         <v>2</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="193" spans="7:12" x14ac:dyDescent="0.25">
@@ -8953,7 +8953,7 @@
         <v>2</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="194" spans="7:12" x14ac:dyDescent="0.25">
@@ -8973,7 +8973,7 @@
         <v>2</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="195" spans="7:12" x14ac:dyDescent="0.25">
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196" spans="7:12" x14ac:dyDescent="0.25">
@@ -9013,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="197" spans="7:12" x14ac:dyDescent="0.25">
@@ -9033,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="198" spans="7:12" x14ac:dyDescent="0.25">
@@ -9053,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="199" spans="7:12" x14ac:dyDescent="0.25">
@@ -9073,7 +9073,7 @@
         <v>2</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="200" spans="7:12" x14ac:dyDescent="0.25">
@@ -9093,7 +9093,7 @@
         <v>2</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="201" spans="7:12" x14ac:dyDescent="0.25">
@@ -9113,7 +9113,7 @@
         <v>2</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="202" spans="7:12" x14ac:dyDescent="0.25">
@@ -9133,7 +9133,7 @@
         <v>2</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="203" spans="7:12" x14ac:dyDescent="0.25">
@@ -9153,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="204" spans="7:12" x14ac:dyDescent="0.25">
@@ -9173,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="205" spans="7:12" x14ac:dyDescent="0.25">
@@ -9193,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="206" spans="7:12" x14ac:dyDescent="0.25">
@@ -9213,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="207" spans="7:12" x14ac:dyDescent="0.25">
@@ -9233,7 +9233,7 @@
         <v>2</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="208" spans="7:12" x14ac:dyDescent="0.25">
@@ -9253,7 +9253,7 @@
         <v>2</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="209" spans="7:12" x14ac:dyDescent="0.25">
@@ -9273,7 +9273,7 @@
         <v>2</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="210" spans="7:12" x14ac:dyDescent="0.25">
@@ -9293,7 +9293,7 @@
         <v>2</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211" spans="7:12" x14ac:dyDescent="0.25">
@@ -9313,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="212" spans="7:12" x14ac:dyDescent="0.25">
@@ -9333,7 +9333,7 @@
         <v>1</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="213" spans="7:12" x14ac:dyDescent="0.25">
@@ -9353,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="214" spans="7:12" x14ac:dyDescent="0.25">
@@ -9373,7 +9373,7 @@
         <v>1</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="7:12" x14ac:dyDescent="0.25">
@@ -9393,7 +9393,7 @@
         <v>2</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="216" spans="7:12" x14ac:dyDescent="0.25">
@@ -9413,7 +9413,7 @@
         <v>2</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="217" spans="7:12" x14ac:dyDescent="0.25">
@@ -9433,7 +9433,7 @@
         <v>2</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="218" spans="7:12" x14ac:dyDescent="0.25">
@@ -9453,7 +9453,7 @@
         <v>2</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="219" spans="7:12" x14ac:dyDescent="0.25">
@@ -9473,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="220" spans="7:12" x14ac:dyDescent="0.25">
@@ -9493,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="221" spans="7:12" x14ac:dyDescent="0.25">
@@ -9513,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="222" spans="7:12" x14ac:dyDescent="0.25">
@@ -9533,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="223" spans="7:12" x14ac:dyDescent="0.25">
@@ -9553,7 +9553,7 @@
         <v>2</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="224" spans="7:12" x14ac:dyDescent="0.25">
@@ -9573,7 +9573,7 @@
         <v>2</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="225" spans="7:12" x14ac:dyDescent="0.25">
@@ -9593,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="226" spans="7:12" x14ac:dyDescent="0.25">
@@ -9613,7 +9613,7 @@
         <v>2</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="227" spans="7:12" x14ac:dyDescent="0.25">
@@ -9633,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="228" spans="7:12" x14ac:dyDescent="0.25">
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="229" spans="7:12" x14ac:dyDescent="0.25">
@@ -9673,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="230" spans="7:12" x14ac:dyDescent="0.25">
@@ -9693,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="231" spans="7:12" x14ac:dyDescent="0.25">
@@ -9713,7 +9713,7 @@
         <v>2</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="232" spans="7:12" x14ac:dyDescent="0.25">
@@ -9733,7 +9733,7 @@
         <v>2</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="233" spans="7:12" x14ac:dyDescent="0.25">
@@ -9753,7 +9753,7 @@
         <v>2</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="234" spans="7:12" x14ac:dyDescent="0.25">
@@ -9773,7 +9773,7 @@
         <v>2</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="235" spans="7:12" x14ac:dyDescent="0.25">
@@ -9793,7 +9793,7 @@
         <v>1</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="236" spans="7:12" x14ac:dyDescent="0.25">
@@ -9813,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="237" spans="7:12" x14ac:dyDescent="0.25">
@@ -9833,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="238" spans="7:12" x14ac:dyDescent="0.25">
@@ -9853,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="239" spans="7:12" x14ac:dyDescent="0.25">
@@ -9873,7 +9873,7 @@
         <v>2</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="240" spans="7:12" x14ac:dyDescent="0.25">
@@ -9893,7 +9893,7 @@
         <v>2</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="241" spans="7:12" x14ac:dyDescent="0.25">
@@ -9913,7 +9913,7 @@
         <v>2</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="242" spans="7:12" x14ac:dyDescent="0.25">
@@ -9933,7 +9933,7 @@
         <v>2</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="243" spans="7:12" x14ac:dyDescent="0.25">
@@ -9953,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="244" spans="7:12" x14ac:dyDescent="0.25">
@@ -9973,7 +9973,7 @@
         <v>1</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="245" spans="7:12" x14ac:dyDescent="0.25">
@@ -9993,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="246" spans="7:12" x14ac:dyDescent="0.25">
@@ -10013,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247" spans="7:12" x14ac:dyDescent="0.25">
@@ -10033,7 +10033,7 @@
         <v>2</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248" spans="7:12" x14ac:dyDescent="0.25">
@@ -10053,7 +10053,7 @@
         <v>2</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="249" spans="7:12" x14ac:dyDescent="0.25">
@@ -10073,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="250" spans="7:12" x14ac:dyDescent="0.25">
@@ -10093,7 +10093,7 @@
         <v>2</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="251" spans="7:12" x14ac:dyDescent="0.25">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" spans="7:12" x14ac:dyDescent="0.25">
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="253" spans="7:12" x14ac:dyDescent="0.25">
@@ -10153,7 +10153,7 @@
         <v>1</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="254" spans="7:12" x14ac:dyDescent="0.25">
@@ -10173,7 +10173,7 @@
         <v>1</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="255" spans="7:12" x14ac:dyDescent="0.25">
@@ -10193,7 +10193,7 @@
         <v>2</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="256" spans="7:12" x14ac:dyDescent="0.25">
@@ -10213,7 +10213,7 @@
         <v>2</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="257" spans="7:12" x14ac:dyDescent="0.25">
@@ -10233,7 +10233,7 @@
         <v>2</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="258" spans="7:12" x14ac:dyDescent="0.25">
@@ -10253,7 +10253,7 @@
         <v>2</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="259" spans="7:12" x14ac:dyDescent="0.25">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="260" spans="7:12" x14ac:dyDescent="0.25">
@@ -10293,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="261" spans="7:12" x14ac:dyDescent="0.25">
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="262" spans="7:12" x14ac:dyDescent="0.25">
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="263" spans="7:12" x14ac:dyDescent="0.25">
@@ -10353,7 +10353,7 @@
         <v>2</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="264" spans="7:12" x14ac:dyDescent="0.25">
@@ -10373,7 +10373,7 @@
         <v>2</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="265" spans="7:12" x14ac:dyDescent="0.25">
@@ -10393,7 +10393,7 @@
         <v>2</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="266" spans="7:12" x14ac:dyDescent="0.25">
@@ -10413,7 +10413,7 @@
         <v>2</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267" spans="7:12" x14ac:dyDescent="0.25">
@@ -10433,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="7:12" x14ac:dyDescent="0.25">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="269" spans="7:12" x14ac:dyDescent="0.25">
@@ -10473,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="270" spans="7:12" x14ac:dyDescent="0.25">
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="271" spans="7:12" x14ac:dyDescent="0.25">
@@ -10513,7 +10513,7 @@
         <v>2</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="272" spans="7:12" x14ac:dyDescent="0.25">
@@ -10533,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="273" spans="7:12" x14ac:dyDescent="0.25">
@@ -10553,7 +10553,7 @@
         <v>2</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="274" spans="7:12" x14ac:dyDescent="0.25">
@@ -10573,7 +10573,7 @@
         <v>2</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="275" spans="7:12" x14ac:dyDescent="0.25">
@@ -10593,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="276" spans="7:12" x14ac:dyDescent="0.25">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="277" spans="7:12" x14ac:dyDescent="0.25">
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="278" spans="7:12" x14ac:dyDescent="0.25">
@@ -10653,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="279" spans="7:12" x14ac:dyDescent="0.25">
@@ -10673,7 +10673,7 @@
         <v>2</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="280" spans="7:12" x14ac:dyDescent="0.25">
@@ -10693,7 +10693,7 @@
         <v>2</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="7:12" x14ac:dyDescent="0.25">
@@ -10713,7 +10713,7 @@
         <v>2</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="282" spans="7:12" x14ac:dyDescent="0.25">
@@ -10733,7 +10733,7 @@
         <v>2</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="283" spans="7:12" x14ac:dyDescent="0.25">
@@ -10753,7 +10753,7 @@
         <v>1</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="284" spans="7:12" x14ac:dyDescent="0.25">
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="285" spans="7:12" x14ac:dyDescent="0.25">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="286" spans="7:12" x14ac:dyDescent="0.25">
@@ -10813,7 +10813,7 @@
         <v>1</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="287" spans="7:12" x14ac:dyDescent="0.25">
@@ -10833,7 +10833,7 @@
         <v>2</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="288" spans="7:12" x14ac:dyDescent="0.25">
@@ -10853,7 +10853,7 @@
         <v>2</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="289" spans="7:12" x14ac:dyDescent="0.25">
@@ -10873,7 +10873,7 @@
         <v>2</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="290" spans="7:12" x14ac:dyDescent="0.25">
@@ -10893,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="291" spans="7:12" x14ac:dyDescent="0.25">
@@ -10913,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="292" spans="7:12" x14ac:dyDescent="0.25">
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="293" spans="7:12" x14ac:dyDescent="0.25">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="294" spans="7:12" x14ac:dyDescent="0.25">
@@ -10973,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="295" spans="7:12" x14ac:dyDescent="0.25">
@@ -10993,7 +10993,7 @@
         <v>2</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="296" spans="7:12" x14ac:dyDescent="0.25">
@@ -11013,7 +11013,7 @@
         <v>2</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="297" spans="7:12" x14ac:dyDescent="0.25">
@@ -11033,7 +11033,7 @@
         <v>2</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="298" spans="7:12" x14ac:dyDescent="0.25">
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="299" spans="7:12" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="300" spans="7:12" x14ac:dyDescent="0.25">
@@ -11093,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="301" spans="7:12" x14ac:dyDescent="0.25">
@@ -11113,7 +11113,7 @@
         <v>1</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="302" spans="7:12" x14ac:dyDescent="0.25">
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="303" spans="7:12" x14ac:dyDescent="0.25">
@@ -11153,7 +11153,7 @@
         <v>2</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="304" spans="7:12" x14ac:dyDescent="0.25">
@@ -11173,7 +11173,7 @@
         <v>2</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="305" spans="7:12" x14ac:dyDescent="0.25">
@@ -11193,7 +11193,7 @@
         <v>2</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="306" spans="7:12" x14ac:dyDescent="0.25">
@@ -11213,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -11229,14 +11229,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F53CABD-0ED1-445D-A61E-8106ACCBF01D}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -11244,7 +11243,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -11261,10 +11260,10 @@
         <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11272,16 +11271,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11289,16 +11288,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="1">
         <v>25</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11306,33 +11305,33 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>147</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11340,21 +11339,21 @@
         <v>136</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11368,10 +11367,10 @@
         <v>140</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -11379,16 +11378,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -11396,16 +11395,16 @@
         <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -11413,33 +11412,33 @@
         <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -11447,16 +11446,16 @@
         <v>137</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -11464,16 +11463,16 @@
         <v>132</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="1">
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -11496,10 +11495,10 @@
         <v>140</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="O19" s="21"/>
     </row>
@@ -11508,16 +11507,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="O20" s="21"/>
     </row>
@@ -11526,16 +11525,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O21" s="21"/>
     </row>
@@ -11544,16 +11543,16 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O22" s="21"/>
     </row>
@@ -11562,16 +11561,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="1">
         <v>0.2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -11590,10 +11589,10 @@
         <v>140</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -11601,16 +11600,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -11618,16 +11617,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="1">
         <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -11635,38 +11634,38 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="1">
         <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -11680,10 +11679,10 @@
         <v>140</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -11691,16 +11690,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -11708,50 +11707,50 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -11774,7 +11773,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -11788,12 +11787,12 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">

--- a/03.Tasks/students.xlsx
+++ b/03.Tasks/students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\db\03.Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522E85A5-2E30-4C74-ABD9-8646AE15866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA4FF33-4E0D-477C-AA9F-DC50931AE165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание и пояснения" sheetId="1" r:id="rId1"/>
@@ -461,9 +461,6 @@
   </si>
   <si>
     <t>Тип</t>
-  </si>
-  <si>
-    <t>Коментарий</t>
   </si>
   <si>
     <t>10А</t>
@@ -1662,6 +1659,9 @@
   </si>
   <si>
     <t>Длина</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
   </si>
 </sst>
 </file>
@@ -2426,7 +2426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -2437,27 +2437,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2465,22 +2465,22 @@
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2488,38 +2488,38 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="7">
         <v>2</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="7">
         <v>3</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="7">
         <v>4</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="7">
         <v>8</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,73 +2627,73 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2707,7 +2707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D903CF-71B7-46D9-8E88-D9C3D5C32A87}">
   <dimension ref="A1:L306"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A153" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2733,11 +2733,11 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>136</v>
@@ -2766,10 +2766,10 @@
         <v>131</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>132</v>
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3024,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3240,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3312,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -3528,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3564,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3600,7 +3600,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3744,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3816,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
         <v>2</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4029,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4101,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4137,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4173,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -4317,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -4389,7 +4389,7 @@
         <v>2</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4425,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -4461,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -4497,7 +4497,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4677,7 +4677,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4713,7 +4713,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4749,7 +4749,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4785,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -5001,7 +5001,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -5037,7 +5037,7 @@
         <v>2</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -5177,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -5247,7 +5247,7 @@
         <v>2</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -5282,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -5352,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -5422,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5527,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -5562,7 +5562,7 @@
         <v>2</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -5597,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>2</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5702,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5737,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5807,7 +5807,7 @@
         <v>2</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -5842,7 +5842,7 @@
         <v>2</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -5877,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
         <v>2</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5947,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -6017,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -6052,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -6087,7 +6087,7 @@
         <v>2</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -6122,7 +6122,7 @@
         <v>2</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -6157,7 +6157,7 @@
         <v>2</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -6192,7 +6192,7 @@
         <v>2</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -6262,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -6297,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -6367,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -6402,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -6472,7 +6472,7 @@
         <v>2</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -6507,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -6647,7 +6647,7 @@
         <v>2</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -6717,7 +6717,7 @@
         <v>2</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -6752,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -6857,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -6892,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -6927,7 +6927,7 @@
         <v>2</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -6962,7 +6962,7 @@
         <v>2</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -6997,7 +6997,7 @@
         <v>2</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
         <v>2</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -7075,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -7171,7 +7171,7 @@
         <v>2</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -7203,7 +7203,7 @@
         <v>2</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -7235,7 +7235,7 @@
         <v>2</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -7267,7 +7267,7 @@
         <v>2</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -7299,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -7331,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -7395,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -7427,7 +7427,7 @@
         <v>2</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -7459,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -7491,7 +7491,7 @@
         <v>2</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -7523,7 +7523,7 @@
         <v>2</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -7555,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
         <v>1</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -7683,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -7715,7 +7715,7 @@
         <v>2</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -7747,7 +7747,7 @@
         <v>2</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -7779,7 +7779,7 @@
         <v>2</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -7811,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -7875,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -7907,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -7939,7 +7939,7 @@
         <v>2</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -7971,7 +7971,7 @@
         <v>2</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -8003,7 +8003,7 @@
         <v>2</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -8035,7 +8035,7 @@
         <v>2</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -8067,7 +8067,7 @@
         <v>1</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -8087,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -8124,7 +8124,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G158" s="1">
         <v>156</v>
@@ -8142,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -8156,7 +8156,7 @@
         <v>28856</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G159" s="1">
         <v>157</v>
@@ -8174,7 +8174,7 @@
         <v>2</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -8188,7 +8188,7 @@
         <v>36412</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G160" s="1">
         <v>158</v>
@@ -8206,7 +8206,7 @@
         <v>2</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -8214,13 +8214,13 @@
         <v>3</v>
       </c>
       <c r="B161" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C161" s="25">
         <v>25600</v>
       </c>
       <c r="D161" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G161" s="1">
         <v>159</v>
@@ -8238,7 +8238,7 @@
         <v>2</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -8246,13 +8246,13 @@
         <v>4</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C162" s="25">
         <v>27427</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G162" s="1">
         <v>160</v>
@@ -8270,7 +8270,7 @@
         <v>2</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -8290,12 +8290,12 @@
         <v>1</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B164" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G164" s="1">
         <v>162</v>
@@ -8313,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -8324,10 +8324,10 @@
         <v>5</v>
       </c>
       <c r="C165" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="D165" s="23" t="s">
         <v>343</v>
-      </c>
-      <c r="D165" s="23" t="s">
-        <v>344</v>
       </c>
       <c r="G165" s="1">
         <v>163</v>
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C166" s="24">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8409,7 +8409,7 @@
         <v>2</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -8441,7 +8441,7 @@
         <v>2</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -8473,7 +8473,7 @@
         <v>2</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -8493,7 +8493,7 @@
         <v>2</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -8513,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -8533,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8593,7 +8593,7 @@
         <v>2</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -8613,7 +8613,7 @@
         <v>2</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="7:12" x14ac:dyDescent="0.25">
@@ -8633,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="7:12" x14ac:dyDescent="0.25">
@@ -8653,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="179" spans="7:12" x14ac:dyDescent="0.25">
@@ -8673,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="7:12" x14ac:dyDescent="0.25">
@@ -8693,7 +8693,7 @@
         <v>1</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="7:12" x14ac:dyDescent="0.25">
@@ -8713,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="7:12" x14ac:dyDescent="0.25">
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" spans="7:12" x14ac:dyDescent="0.25">
@@ -8753,7 +8753,7 @@
         <v>2</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="184" spans="7:12" x14ac:dyDescent="0.25">
@@ -8773,7 +8773,7 @@
         <v>2</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="7:12" x14ac:dyDescent="0.25">
@@ -8793,7 +8793,7 @@
         <v>2</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" spans="7:12" x14ac:dyDescent="0.25">
@@ -8813,7 +8813,7 @@
         <v>2</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="7:12" x14ac:dyDescent="0.25">
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="7:12" x14ac:dyDescent="0.25">
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="189" spans="7:12" x14ac:dyDescent="0.25">
@@ -8873,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="190" spans="7:12" x14ac:dyDescent="0.25">
@@ -8893,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="191" spans="7:12" x14ac:dyDescent="0.25">
@@ -8913,7 +8913,7 @@
         <v>2</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="192" spans="7:12" x14ac:dyDescent="0.25">
@@ -8933,7 +8933,7 @@
         <v>2</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="193" spans="7:12" x14ac:dyDescent="0.25">
@@ -8953,7 +8953,7 @@
         <v>2</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="194" spans="7:12" x14ac:dyDescent="0.25">
@@ -8973,7 +8973,7 @@
         <v>2</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" spans="7:12" x14ac:dyDescent="0.25">
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="196" spans="7:12" x14ac:dyDescent="0.25">
@@ -9013,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="197" spans="7:12" x14ac:dyDescent="0.25">
@@ -9033,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="198" spans="7:12" x14ac:dyDescent="0.25">
@@ -9053,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="199" spans="7:12" x14ac:dyDescent="0.25">
@@ -9073,7 +9073,7 @@
         <v>2</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="200" spans="7:12" x14ac:dyDescent="0.25">
@@ -9093,7 +9093,7 @@
         <v>2</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="201" spans="7:12" x14ac:dyDescent="0.25">
@@ -9113,7 +9113,7 @@
         <v>2</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="202" spans="7:12" x14ac:dyDescent="0.25">
@@ -9133,7 +9133,7 @@
         <v>2</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="203" spans="7:12" x14ac:dyDescent="0.25">
@@ -9153,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="204" spans="7:12" x14ac:dyDescent="0.25">
@@ -9173,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="205" spans="7:12" x14ac:dyDescent="0.25">
@@ -9193,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="206" spans="7:12" x14ac:dyDescent="0.25">
@@ -9213,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="207" spans="7:12" x14ac:dyDescent="0.25">
@@ -9233,7 +9233,7 @@
         <v>2</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="208" spans="7:12" x14ac:dyDescent="0.25">
@@ -9253,7 +9253,7 @@
         <v>2</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="209" spans="7:12" x14ac:dyDescent="0.25">
@@ -9273,7 +9273,7 @@
         <v>2</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="210" spans="7:12" x14ac:dyDescent="0.25">
@@ -9293,7 +9293,7 @@
         <v>2</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="211" spans="7:12" x14ac:dyDescent="0.25">
@@ -9313,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="212" spans="7:12" x14ac:dyDescent="0.25">
@@ -9333,7 +9333,7 @@
         <v>1</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="213" spans="7:12" x14ac:dyDescent="0.25">
@@ -9353,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="214" spans="7:12" x14ac:dyDescent="0.25">
@@ -9373,7 +9373,7 @@
         <v>1</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="215" spans="7:12" x14ac:dyDescent="0.25">
@@ -9393,7 +9393,7 @@
         <v>2</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="216" spans="7:12" x14ac:dyDescent="0.25">
@@ -9413,7 +9413,7 @@
         <v>2</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="217" spans="7:12" x14ac:dyDescent="0.25">
@@ -9433,7 +9433,7 @@
         <v>2</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="218" spans="7:12" x14ac:dyDescent="0.25">
@@ -9453,7 +9453,7 @@
         <v>2</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="219" spans="7:12" x14ac:dyDescent="0.25">
@@ -9473,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="220" spans="7:12" x14ac:dyDescent="0.25">
@@ -9493,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="221" spans="7:12" x14ac:dyDescent="0.25">
@@ -9513,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="222" spans="7:12" x14ac:dyDescent="0.25">
@@ -9533,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="223" spans="7:12" x14ac:dyDescent="0.25">
@@ -9553,7 +9553,7 @@
         <v>2</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="224" spans="7:12" x14ac:dyDescent="0.25">
@@ -9573,7 +9573,7 @@
         <v>2</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="225" spans="7:12" x14ac:dyDescent="0.25">
@@ -9593,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="226" spans="7:12" x14ac:dyDescent="0.25">
@@ -9613,7 +9613,7 @@
         <v>2</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="227" spans="7:12" x14ac:dyDescent="0.25">
@@ -9633,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="228" spans="7:12" x14ac:dyDescent="0.25">
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="229" spans="7:12" x14ac:dyDescent="0.25">
@@ -9673,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="230" spans="7:12" x14ac:dyDescent="0.25">
@@ -9693,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="231" spans="7:12" x14ac:dyDescent="0.25">
@@ -9713,7 +9713,7 @@
         <v>2</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="232" spans="7:12" x14ac:dyDescent="0.25">
@@ -9733,7 +9733,7 @@
         <v>2</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="233" spans="7:12" x14ac:dyDescent="0.25">
@@ -9753,7 +9753,7 @@
         <v>2</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="234" spans="7:12" x14ac:dyDescent="0.25">
@@ -9773,7 +9773,7 @@
         <v>2</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="235" spans="7:12" x14ac:dyDescent="0.25">
@@ -9793,7 +9793,7 @@
         <v>1</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="236" spans="7:12" x14ac:dyDescent="0.25">
@@ -9813,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="237" spans="7:12" x14ac:dyDescent="0.25">
@@ -9833,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238" spans="7:12" x14ac:dyDescent="0.25">
@@ -9853,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="239" spans="7:12" x14ac:dyDescent="0.25">
@@ -9873,7 +9873,7 @@
         <v>2</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="240" spans="7:12" x14ac:dyDescent="0.25">
@@ -9893,7 +9893,7 @@
         <v>2</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="241" spans="7:12" x14ac:dyDescent="0.25">
@@ -9913,7 +9913,7 @@
         <v>2</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="242" spans="7:12" x14ac:dyDescent="0.25">
@@ -9933,7 +9933,7 @@
         <v>2</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="243" spans="7:12" x14ac:dyDescent="0.25">
@@ -9953,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="244" spans="7:12" x14ac:dyDescent="0.25">
@@ -9973,7 +9973,7 @@
         <v>1</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="245" spans="7:12" x14ac:dyDescent="0.25">
@@ -9993,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="246" spans="7:12" x14ac:dyDescent="0.25">
@@ -10013,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="247" spans="7:12" x14ac:dyDescent="0.25">
@@ -10033,7 +10033,7 @@
         <v>2</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="248" spans="7:12" x14ac:dyDescent="0.25">
@@ -10053,7 +10053,7 @@
         <v>2</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="249" spans="7:12" x14ac:dyDescent="0.25">
@@ -10073,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="250" spans="7:12" x14ac:dyDescent="0.25">
@@ -10093,7 +10093,7 @@
         <v>2</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="251" spans="7:12" x14ac:dyDescent="0.25">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="252" spans="7:12" x14ac:dyDescent="0.25">
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" spans="7:12" x14ac:dyDescent="0.25">
@@ -10153,7 +10153,7 @@
         <v>1</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="254" spans="7:12" x14ac:dyDescent="0.25">
@@ -10173,7 +10173,7 @@
         <v>1</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="255" spans="7:12" x14ac:dyDescent="0.25">
@@ -10193,7 +10193,7 @@
         <v>2</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="256" spans="7:12" x14ac:dyDescent="0.25">
@@ -10213,7 +10213,7 @@
         <v>2</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="257" spans="7:12" x14ac:dyDescent="0.25">
@@ -10233,7 +10233,7 @@
         <v>2</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="258" spans="7:12" x14ac:dyDescent="0.25">
@@ -10253,7 +10253,7 @@
         <v>2</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="259" spans="7:12" x14ac:dyDescent="0.25">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="260" spans="7:12" x14ac:dyDescent="0.25">
@@ -10293,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="261" spans="7:12" x14ac:dyDescent="0.25">
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="262" spans="7:12" x14ac:dyDescent="0.25">
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="263" spans="7:12" x14ac:dyDescent="0.25">
@@ -10353,7 +10353,7 @@
         <v>2</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="264" spans="7:12" x14ac:dyDescent="0.25">
@@ -10373,7 +10373,7 @@
         <v>2</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="265" spans="7:12" x14ac:dyDescent="0.25">
@@ -10393,7 +10393,7 @@
         <v>2</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="266" spans="7:12" x14ac:dyDescent="0.25">
@@ -10413,7 +10413,7 @@
         <v>2</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="267" spans="7:12" x14ac:dyDescent="0.25">
@@ -10433,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="268" spans="7:12" x14ac:dyDescent="0.25">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="269" spans="7:12" x14ac:dyDescent="0.25">
@@ -10473,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="270" spans="7:12" x14ac:dyDescent="0.25">
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="271" spans="7:12" x14ac:dyDescent="0.25">
@@ -10513,7 +10513,7 @@
         <v>2</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="272" spans="7:12" x14ac:dyDescent="0.25">
@@ -10533,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="273" spans="7:12" x14ac:dyDescent="0.25">
@@ -10553,7 +10553,7 @@
         <v>2</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="274" spans="7:12" x14ac:dyDescent="0.25">
@@ -10573,7 +10573,7 @@
         <v>2</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="275" spans="7:12" x14ac:dyDescent="0.25">
@@ -10593,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="276" spans="7:12" x14ac:dyDescent="0.25">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="277" spans="7:12" x14ac:dyDescent="0.25">
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="278" spans="7:12" x14ac:dyDescent="0.25">
@@ -10653,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="279" spans="7:12" x14ac:dyDescent="0.25">
@@ -10673,7 +10673,7 @@
         <v>2</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="280" spans="7:12" x14ac:dyDescent="0.25">
@@ -10693,7 +10693,7 @@
         <v>2</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="281" spans="7:12" x14ac:dyDescent="0.25">
@@ -10713,7 +10713,7 @@
         <v>2</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="282" spans="7:12" x14ac:dyDescent="0.25">
@@ -10733,7 +10733,7 @@
         <v>2</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="283" spans="7:12" x14ac:dyDescent="0.25">
@@ -10753,7 +10753,7 @@
         <v>1</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="284" spans="7:12" x14ac:dyDescent="0.25">
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="285" spans="7:12" x14ac:dyDescent="0.25">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="286" spans="7:12" x14ac:dyDescent="0.25">
@@ -10813,7 +10813,7 @@
         <v>1</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="287" spans="7:12" x14ac:dyDescent="0.25">
@@ -10833,7 +10833,7 @@
         <v>2</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="7:12" x14ac:dyDescent="0.25">
@@ -10853,7 +10853,7 @@
         <v>2</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="7:12" x14ac:dyDescent="0.25">
@@ -10873,7 +10873,7 @@
         <v>2</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="7:12" x14ac:dyDescent="0.25">
@@ -10893,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="291" spans="7:12" x14ac:dyDescent="0.25">
@@ -10913,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="292" spans="7:12" x14ac:dyDescent="0.25">
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="293" spans="7:12" x14ac:dyDescent="0.25">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="294" spans="7:12" x14ac:dyDescent="0.25">
@@ -10973,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="295" spans="7:12" x14ac:dyDescent="0.25">
@@ -10993,7 +10993,7 @@
         <v>2</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="296" spans="7:12" x14ac:dyDescent="0.25">
@@ -11013,7 +11013,7 @@
         <v>2</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="297" spans="7:12" x14ac:dyDescent="0.25">
@@ -11033,7 +11033,7 @@
         <v>2</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="298" spans="7:12" x14ac:dyDescent="0.25">
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="299" spans="7:12" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="300" spans="7:12" x14ac:dyDescent="0.25">
@@ -11093,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="301" spans="7:12" x14ac:dyDescent="0.25">
@@ -11113,7 +11113,7 @@
         <v>1</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="302" spans="7:12" x14ac:dyDescent="0.25">
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="303" spans="7:12" x14ac:dyDescent="0.25">
@@ -11153,7 +11153,7 @@
         <v>2</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="304" spans="7:12" x14ac:dyDescent="0.25">
@@ -11173,7 +11173,7 @@
         <v>2</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="305" spans="7:12" x14ac:dyDescent="0.25">
@@ -11193,7 +11193,7 @@
         <v>2</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="306" spans="7:12" x14ac:dyDescent="0.25">
@@ -11213,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -11229,7 +11229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F53CABD-0ED1-445D-A61E-8106ACCBF01D}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11243,7 +11245,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -11260,10 +11262,10 @@
         <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11271,16 +11273,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>144</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11288,16 +11290,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="1">
         <v>25</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11305,33 +11307,33 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>146</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11339,21 +11341,21 @@
         <v>136</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11367,10 +11369,10 @@
         <v>140</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -11378,16 +11380,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -11395,16 +11397,16 @@
         <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -11412,33 +11414,33 @@
         <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -11446,16 +11448,16 @@
         <v>137</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -11463,16 +11465,16 @@
         <v>132</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="1">
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -11495,10 +11497,10 @@
         <v>140</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="O19" s="21"/>
     </row>
@@ -11507,16 +11509,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="O20" s="21"/>
     </row>
@@ -11525,16 +11527,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O21" s="21"/>
     </row>
@@ -11543,16 +11545,16 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O22" s="21"/>
     </row>
@@ -11561,16 +11563,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="1">
         <v>0.2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -11589,10 +11591,10 @@
         <v>140</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -11600,16 +11602,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -11617,16 +11619,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" s="1">
         <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -11634,38 +11636,38 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="1">
         <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -11679,10 +11681,10 @@
         <v>140</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -11690,16 +11692,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -11707,50 +11709,50 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -11773,7 +11775,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -11787,12 +11789,12 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
